--- a/medicine/Enfance/Gunna_Grähs/Gunna_Grähs.xlsx
+++ b/medicine/Enfance/Gunna_Grähs/Gunna_Grähs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gunna_Gr%C3%A4hs</t>
+          <t>Gunna_Grähs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gunna Grähs (né le 11 juin 1954 à Filipstad) est une auteure de bande dessinée et illustratrice suédoise. Ses travaux utilisent souvent des techniques minoritaires dans la bande dessinée, comme la gravure sur bois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gunna_Gr%C3%A4hs</t>
+          <t>Gunna_Grähs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2020 et 2021, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020 et 2021, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gunna_Gr%C3%A4hs</t>
+          <t>Gunna_Grähs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1987 : Prix Adamson du meilleur auteur suédois pour l'ensemble de son œuvre
 2012 : Kulla-Gulla-priset
-2020 et 2021 : Sélection pour le Prix commémoratif Astrid-Lindgren[1]</t>
+2020 et 2021 : Sélection pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
